--- a/doc/Radio_class.xlsx
+++ b/doc/Radio_class.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,156 +471,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A 30-year-old man has a sudden severe headache. Upon arrival in the ED, he has neck stiffness, photophobia, and a blood pressure of 170/96. CT scan shows blood in the suprasellar cistern and left sylvian fissure. What is the next most appropriate test?</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MRI brain.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>vessel angiography.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Lumbar puncture.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Call neurosurgery.</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>vessel angiography.</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>A 5 years old boy fallen from the stairs in his house, he came to ER, his distal leg radiograph showed a fracture extending from the epiphysis to the tibial plafond, which type of fracture does he have?</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Salter-Harris fractures Type I.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Salter-Harris fractures Type II.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Salter-Harris fractures Type III.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Salter-Harris fractures Type IV.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>None of the above.</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Which of the following is an extra-axial posterior fossa tumor in adults:</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Choroid plexus papilloma.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Metastasis.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Hemangioblastoma.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Lymphoma.</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Glioma.</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
           <t>A 44-year-old alcoholic woman presents with fever, chills, right upper quadrant pain, nausea, and vomiting. On exam, she has guarding in the RUQ. Labs show a total bilirubin of 8.2, WBC of 16K. 
 What should you do next?</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CT abdomen.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>RUQ ultrasound.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Consult hepatology for alcoholic hepatitis.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>RUQ ultrasound.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Consult hepatology for alcoholic hepatitis.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Start IV antibiotics.</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Start pentoxifylline.</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
